--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\workspace\baskin31_Singletone_packaging\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/36ede7e719645ef7/바탕화^F1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3E338A-EB69-4B8A-B1C8-E08F01BFC41A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{EE3E338A-EB69-4B8A-B1C8-E08F01BFC41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{73DB6F42-5856-480D-B654-F8B4D38BDF9E}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="3330" windowWidth="20235" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
     <sheet name="userList" sheetId="2" r:id="rId2"/>
     <sheet name="notifyList" sheetId="3" r:id="rId3"/>
+    <sheet name="icecreamList" sheetId="4" r:id="rId4"/>
+    <sheet name="sizeList" sheetId="5" r:id="rId5"/>
+    <sheet name="orderInformationList" sheetId="6" r:id="rId6"/>
+    <sheet name="orderDetailsList" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
   <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +375,199 @@
   </si>
   <si>
     <t>2021-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우낀소(우유속에 끼인 소보로)</t>
+  </si>
+  <si>
+    <t>아이스 호떡</t>
+  </si>
+  <si>
+    <t>아이스 붕어빵</t>
+  </si>
+  <si>
+    <t>매시업스 시리얼</t>
+  </si>
+  <si>
+    <t>오레오 쿠키 앤 크림</t>
+  </si>
+  <si>
+    <t>메이플 월넛</t>
+  </si>
+  <si>
+    <t>알폰소 망고</t>
+  </si>
+  <si>
+    <t>다크 초코 나이트</t>
+  </si>
+  <si>
+    <t>북극곰 폴리베어</t>
+  </si>
+  <si>
+    <t>초콜릿 칩</t>
+  </si>
+  <si>
+    <t>에스프레소 앤 크림</t>
+  </si>
+  <si>
+    <t>럭키 카라멜 터틀</t>
+  </si>
+  <si>
+    <t>엄마는 외계인</t>
+  </si>
+  <si>
+    <t>아빠는 딸바봉</t>
+  </si>
+  <si>
+    <t>아몬드 봉봉</t>
+  </si>
+  <si>
+    <t>민트 초콜릿 칩</t>
+  </si>
+  <si>
+    <t>슈팅스타</t>
+  </si>
+  <si>
+    <t>사랑에 빠진 딸기</t>
+  </si>
+  <si>
+    <t>초코나무 숲</t>
+  </si>
+  <si>
+    <t>뉴욕 치즈케이크</t>
+  </si>
+  <si>
+    <t>피스타치오 아몬드</t>
+  </si>
+  <si>
+    <t>베리베리 스트로베리</t>
+  </si>
+  <si>
+    <t>바람과 함께 사라지다</t>
+  </si>
+  <si>
+    <t>레인보우 샤베트</t>
+  </si>
+  <si>
+    <t>이상한 나라의 솜사탕</t>
+  </si>
+  <si>
+    <t>초콜릿</t>
+  </si>
+  <si>
+    <t>31요거트</t>
+  </si>
+  <si>
+    <t>그린티</t>
+  </si>
+  <si>
+    <t>체리쥬빌레</t>
+  </si>
+  <si>
+    <t>바닐라</t>
+  </si>
+  <si>
+    <t>초콜릿 무스</t>
+  </si>
+  <si>
+    <t>gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flavorKinds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글레귤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글킹</t>
+  </si>
+  <si>
+    <t>더블주니어</t>
+  </si>
+  <si>
+    <t>더블레귤러</t>
+  </si>
+  <si>
+    <t>파인트</t>
+  </si>
+  <si>
+    <t>쿼터</t>
+  </si>
+  <si>
+    <t>패밀리</t>
+  </si>
+  <si>
+    <t>하프갤런</t>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoonCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>howToPick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep133</t>
+  </si>
+  <si>
+    <t>매장식사</t>
+  </si>
+  <si>
+    <t>배달</t>
+  </si>
+  <si>
+    <t>jia76</t>
+  </si>
+  <si>
+    <t>sum09054</t>
+  </si>
+  <si>
+    <t>방문포장</t>
+  </si>
+  <si>
+    <t>han6666</t>
+  </si>
+  <si>
+    <t>yung22</t>
+  </si>
+  <si>
+    <t>number1</t>
+  </si>
+  <si>
+    <t>order_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icecream_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,9 +901,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -714,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -735,9 +932,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -754,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -771,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -788,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -805,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -822,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -839,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -856,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -873,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -890,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -907,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -924,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -941,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -958,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -975,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -992,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1009,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1026,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1060,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1077,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1094,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1121,14 +1318,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BD771E-2D1E-4BFC-846B-FA7C568E5994}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1145,7 +1345,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1162,7 +1362,7 @@
         <v>10831</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1179,7 +1379,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1196,7 +1396,7 @@
         <v>8376</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1213,7 +1413,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1235,4 +1435,1246 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DAEA6D-CC6A-4948-9E1E-DE499125C7B1}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>5000</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23">
+        <v>5000</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25">
+        <v>5000</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26">
+        <v>5000</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31">
+        <v>5000</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32">
+        <v>5000</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35DA8E1-83A1-481E-8A1E-34E598D50B13}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3200</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4300</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>230</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6200</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6">
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>8200</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <v>620</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>15500</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8">
+        <v>960</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>22000</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>26500</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8B09F0-C2C1-4FC8-AFD3-24D17DDFBF9C}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833B9EE0-3271-4B5E-9108-C79E51CA5D57}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\workspace\baskin31_Singletone_packaging\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F67B6-E909-411E-B263-E7A9E31916B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="admin" r:id="rId3" sheetId="1"/>
-    <sheet name="userList" r:id="rId4" sheetId="2"/>
-    <sheet name="notifyList" r:id="rId5" sheetId="3"/>
-    <sheet name="icecreamList" r:id="rId6" sheetId="4"/>
-    <sheet name="sizeList" r:id="rId7" sheetId="5"/>
-    <sheet name="orderInformationList" r:id="rId8" sheetId="6"/>
-    <sheet name="orderDetailsList" r:id="rId9" sheetId="7"/>
+    <sheet name="admin" sheetId="1" r:id="rId1"/>
+    <sheet name="userList" sheetId="2" r:id="rId2"/>
+    <sheet name="notifyList" sheetId="3" r:id="rId3"/>
+    <sheet name="icecreamList" sheetId="4" r:id="rId4"/>
+    <sheet name="sizeList" sheetId="5" r:id="rId5"/>
+    <sheet name="orderInformationList" sheetId="6" r:id="rId6"/>
+    <sheet name="orderDetailsList" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -441,6 +449,9 @@
   </si>
   <si>
     <t>방문포장</t>
+  </si>
+  <si>
+    <t>매장</t>
   </si>
   <si>
     <t>order_seq</t>
@@ -452,14 +463,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,7 +485,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -481,23 +498,335 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -514,19 +843,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -553,14 +884,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>3800.0</v>
+      <c r="D2">
+        <v>7300</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -570,14 +901,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
-        <v>7000.0</v>
+      <c r="D3">
+        <v>7000</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -587,14 +918,14 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
-        <v>53500.0</v>
+      <c r="D4">
+        <v>53500</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -604,14 +935,14 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
-        <v>43700.0</v>
+      <c r="D5">
+        <v>43700</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -621,14 +952,14 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
-        <v>56700.0</v>
+      <c r="D6">
+        <v>56700</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -638,14 +969,14 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
-        <v>23500.0</v>
+      <c r="D7">
+        <v>23500</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -655,14 +986,14 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
-        <v>12100.0</v>
+      <c r="D8">
+        <v>12100</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -672,14 +1003,14 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
-        <v>15500.0</v>
+      <c r="D9">
+        <v>15500</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -689,14 +1020,14 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="n">
-        <v>34500.0</v>
+      <c r="D10">
+        <v>34500</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -706,14 +1037,14 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="n">
-        <v>31000.0</v>
+      <c r="D11">
+        <v>31000</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -723,14 +1054,14 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="n">
-        <v>73800.0</v>
+      <c r="D12">
+        <v>73800</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -740,14 +1071,14 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="n">
-        <v>25300.0</v>
+      <c r="D13">
+        <v>25300</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -757,14 +1088,14 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="n">
-        <v>11000.0</v>
+      <c r="D14">
+        <v>11000</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -774,14 +1105,14 @@
       <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="n">
-        <v>6000.0</v>
+      <c r="D15">
+        <v>6000</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -791,14 +1122,14 @@
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="n">
-        <v>7500.0</v>
+      <c r="D16">
+        <v>7500</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -808,14 +1139,14 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="n">
-        <v>3200.0</v>
+      <c r="D17">
+        <v>3200</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -825,14 +1156,14 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="n">
-        <v>85350.0</v>
+      <c r="D18">
+        <v>85350</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -842,14 +1173,14 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="n">
-        <v>15740.0</v>
+      <c r="D19">
+        <v>15740</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -859,14 +1190,14 @@
       <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="n">
-        <v>82540.0</v>
+      <c r="D20">
+        <v>82540</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -876,14 +1207,14 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="n">
-        <v>57820.0</v>
+      <c r="D21">
+        <v>57820</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -893,27 +1224,28 @@
       <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="n">
-        <v>43580.0</v>
+      <c r="D22">
+        <v>43580</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -930,9 +1262,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -943,13 +1275,13 @@
       <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="n">
-        <v>10831.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+      <c r="E2">
+        <v>10831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -960,13 +1292,13 @@
       <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="n">
-        <v>6678.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+      <c r="E3">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -977,13 +1309,13 @@
       <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="n">
-        <v>8376.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+      <c r="E4">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -994,13 +1326,13 @@
       <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" t="n">
-        <v>678.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+      <c r="E5">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -1011,24 +1343,25 @@
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" t="n">
-        <v>372.0</v>
+      <c r="E6">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1042,454 +1375,455 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="n">
-        <v>5000.0</v>
+      <c r="C2">
+        <v>4800</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="n">
-        <v>5000.0</v>
+      <c r="C3">
+        <v>5000</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="n">
-        <v>5000.0</v>
+      <c r="C4">
+        <v>5000</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="n">
-        <v>4885.0</v>
+      <c r="C5">
+        <v>4885</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="n">
-        <v>4885.0</v>
+      <c r="C6">
+        <v>4885</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="n">
-        <v>5000.0</v>
+      <c r="C7">
+        <v>5000</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="n">
-        <v>5000.0</v>
+      <c r="C8">
+        <v>5000</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="n">
-        <v>5000.0</v>
+      <c r="C9">
+        <v>5000</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" t="n">
-        <v>5000.0</v>
+      <c r="C10">
+        <v>5000</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" t="n">
-        <v>5000.0</v>
+      <c r="C11">
+        <v>5000</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="n">
-        <v>5000.0</v>
+      <c r="C12">
+        <v>5000</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="n">
-        <v>5000.0</v>
+      <c r="C13">
+        <v>5000</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="n">
-        <v>5000.0</v>
+      <c r="C14">
+        <v>5000</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="n">
-        <v>5000.0</v>
+      <c r="C15">
+        <v>5000</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="n">
-        <v>5000.0</v>
+      <c r="C16">
+        <v>5000</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" t="n">
-        <v>5000.0</v>
+      <c r="C17">
+        <v>5000</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" t="n">
-        <v>5000.0</v>
+      <c r="C18">
+        <v>5000</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="n">
-        <v>5000.0</v>
+      <c r="C19">
+        <v>5000</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="n">
-        <v>5000.0</v>
+      <c r="C20">
+        <v>5000</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21" t="n">
-        <v>5000.0</v>
+      <c r="C21">
+        <v>5000</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21.0</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22" t="n">
-        <v>5000.0</v>
+      <c r="C22">
+        <v>5000</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22.0</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" t="n">
-        <v>5000.0</v>
+      <c r="C23">
+        <v>4600</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23.0</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="n">
-        <v>5000.0</v>
+      <c r="C24">
+        <v>5000</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24.0</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25" t="n">
-        <v>5000.0</v>
+      <c r="C25">
+        <v>4800</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25.0</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26" t="n">
-        <v>5000.0</v>
+      <c r="C26">
+        <v>4600</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26.0</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="n">
-        <v>5000.0</v>
+      <c r="C27">
+        <v>5000</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27.0</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="n">
-        <v>5000.0</v>
+      <c r="C28">
+        <v>5000</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28.0</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="n">
-        <v>5000.0</v>
+      <c r="C29">
+        <v>5000</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29.0</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="n">
-        <v>5000.0</v>
+      <c r="C30">
+        <v>5000</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30.0</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" t="n">
-        <v>5000.0</v>
+      <c r="C31">
+        <v>5000</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31.0</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32" t="n">
-        <v>5000.0</v>
+      <c r="C32">
+        <v>5000</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1509,180 +1843,181 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3200.0</v>
+      <c r="C2">
+        <v>115</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3200</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4000.0</v>
+      <c r="C3">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
-      <c r="C4" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4300.0</v>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4300</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="n">
-        <v>230.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6200.0</v>
+      <c r="C5">
+        <v>230</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6200</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8200.0</v>
+      <c r="C6">
+        <v>320</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>8200</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="C7" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15500.0</v>
+      <c r="C7">
+        <v>620</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>15500</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8" t="n">
-        <v>960.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>22000.0</v>
+      <c r="C8">
+        <v>960</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>22000</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="C9" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26500.0</v>
+      <c r="C9">
+        <v>1200</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>26500</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1705,18 +2040,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0</v>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>138</v>
@@ -1728,18 +2063,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>139</v>
@@ -1751,18 +2086,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.0</v>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
@@ -1774,18 +2109,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -1797,18 +2132,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0</v>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>139</v>
@@ -1820,18 +2155,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.0</v>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>138</v>
@@ -1843,18 +2178,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.0</v>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>138</v>
@@ -1866,18 +2201,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.0</v>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>140</v>
@@ -1889,18 +2224,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.0</v>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
       </c>
       <c r="E10" t="s">
         <v>139</v>
@@ -1912,18 +2247,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.0</v>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>139</v>
@@ -1935,361 +2270,432 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B30" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B31" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5.0</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\workspace\baskin31_Singletone_packaging\db\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F67B6-E909-411E-B263-E7A9E31916B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="admin" sheetId="1" r:id="rId1"/>
-    <sheet name="userList" sheetId="2" r:id="rId2"/>
-    <sheet name="notifyList" sheetId="3" r:id="rId3"/>
-    <sheet name="icecreamList" sheetId="4" r:id="rId4"/>
-    <sheet name="sizeList" sheetId="5" r:id="rId5"/>
-    <sheet name="orderInformationList" sheetId="6" r:id="rId6"/>
-    <sheet name="orderDetailsList" sheetId="7" r:id="rId7"/>
+    <sheet name="admin" r:id="rId3" sheetId="1"/>
+    <sheet name="userList" r:id="rId4" sheetId="2"/>
+    <sheet name="notifyList" r:id="rId5" sheetId="3"/>
+    <sheet name="icecreamList" r:id="rId6" sheetId="4"/>
+    <sheet name="sizeList" r:id="rId7" sheetId="5"/>
+    <sheet name="orderInformationList" r:id="rId8" sheetId="6"/>
+    <sheet name="orderDetailsList" r:id="rId9" sheetId="7"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -449,9 +441,6 @@
   </si>
   <si>
     <t>방문포장</t>
-  </si>
-  <si>
-    <t>매장</t>
   </si>
   <si>
     <t>order_seq</t>
@@ -463,20 +452,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -485,7 +468,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -498,335 +481,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -843,21 +514,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -884,14 +553,14 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>7300</v>
+      <c r="D2" t="n">
+        <v>3800.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -901,14 +570,14 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>7000</v>
+      <c r="D3" t="n">
+        <v>7000.0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -918,14 +587,14 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>53500</v>
+      <c r="D4" t="n">
+        <v>53500.0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -935,14 +604,14 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>43700</v>
+      <c r="D5" t="n">
+        <v>43700.0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -952,14 +621,14 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>56700</v>
+      <c r="D6" t="n">
+        <v>56700.0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -969,14 +638,14 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>23500</v>
+      <c r="D7" t="n">
+        <v>23500.0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -986,14 +655,14 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
-        <v>12100</v>
+      <c r="D8" t="n">
+        <v>12100.0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1003,14 +672,14 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>15500</v>
+      <c r="D9" t="n">
+        <v>15500.0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1020,14 +689,14 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10">
-        <v>34500</v>
+      <c r="D10" t="n">
+        <v>34500.0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1037,14 +706,14 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11">
-        <v>31000</v>
+      <c r="D11" t="n">
+        <v>31000.0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1054,14 +723,14 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12">
-        <v>73800</v>
+      <c r="D12" t="n">
+        <v>73800.0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1071,14 +740,14 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
-      <c r="D13">
-        <v>25300</v>
+      <c r="D13" t="n">
+        <v>25300.0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1088,14 +757,14 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14">
-        <v>11000</v>
+      <c r="D14" t="n">
+        <v>11000.0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1105,14 +774,14 @@
       <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D15">
-        <v>6000</v>
+      <c r="D15" t="n">
+        <v>6000.0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1122,14 +791,14 @@
       <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="D16">
-        <v>7500</v>
+      <c r="D16" t="n">
+        <v>7500.0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1139,14 +808,14 @@
       <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="D17">
-        <v>3200</v>
+      <c r="D17" t="n">
+        <v>3200.0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1156,14 +825,14 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18">
-        <v>85350</v>
+      <c r="D18" t="n">
+        <v>85350.0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1173,14 +842,14 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19">
-        <v>15740</v>
+      <c r="D19" t="n">
+        <v>15740.0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1190,14 +859,14 @@
       <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D20">
-        <v>82540</v>
+      <c r="D20" t="n">
+        <v>82540.0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1207,14 +876,14 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21">
-        <v>57820</v>
+      <c r="D21" t="n">
+        <v>57820.0</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1224,28 +893,27 @@
       <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="D22">
-        <v>43580</v>
+      <c r="D22" t="n">
+        <v>43580.0</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1262,9 +930,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -1275,13 +943,13 @@
       <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="E2">
-        <v>10831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
+      <c r="E2" t="n">
+        <v>10831.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -1292,13 +960,13 @@
       <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="E3">
-        <v>6678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
+      <c r="E3" t="n">
+        <v>6678.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -1309,13 +977,13 @@
       <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="E4">
-        <v>8376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
+      <c r="E4" t="n">
+        <v>8376.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -1326,13 +994,13 @@
       <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="E5">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
+      <c r="E5" t="n">
+        <v>678.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -1343,25 +1011,24 @@
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="E6">
-        <v>372</v>
+      <c r="E6" t="n">
+        <v>372.0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1375,455 +1042,454 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
-        <v>4800</v>
+      <c r="C2" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="C3">
-        <v>5000</v>
+      <c r="C3" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
-        <v>5000</v>
+      <c r="C4" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5">
-        <v>4885</v>
+      <c r="C5" t="n">
+        <v>4885.0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6">
-        <v>4885</v>
+      <c r="C6" t="n">
+        <v>4885.0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>96</v>
       </c>
-      <c r="C7">
-        <v>5000</v>
+      <c r="C7" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8">
-        <v>5000</v>
+      <c r="C8" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9">
-        <v>5000</v>
+      <c r="C9" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10">
-        <v>5000</v>
+      <c r="C10" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11">
-        <v>5000</v>
+      <c r="C11" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12">
-        <v>5000</v>
+      <c r="C12" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13">
-        <v>5000</v>
+      <c r="C13" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14">
-        <v>5000</v>
+      <c r="C14" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
       </c>
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15">
-        <v>5000</v>
+      <c r="C15" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
       </c>
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
-        <v>5000</v>
+      <c r="C16" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17">
-        <v>5000</v>
+      <c r="C17" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
       </c>
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18">
-        <v>5000</v>
+      <c r="C18" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19">
-        <v>5000</v>
+      <c r="C19" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
       </c>
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20">
-        <v>5000</v>
+      <c r="C20" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
       </c>
       <c r="B21" t="s">
         <v>110</v>
       </c>
-      <c r="C21">
-        <v>5000</v>
+      <c r="C21" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
       </c>
       <c r="B22" t="s">
         <v>111</v>
       </c>
-      <c r="C22">
-        <v>5000</v>
+      <c r="C22" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
       </c>
       <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23">
-        <v>4600</v>
+      <c r="C23" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
       </c>
       <c r="B24" t="s">
         <v>113</v>
       </c>
-      <c r="C24">
-        <v>5000</v>
+      <c r="C24" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
-        <v>4800</v>
+      <c r="C25" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
       </c>
       <c r="B26" t="s">
         <v>115</v>
       </c>
-      <c r="C26">
-        <v>4600</v>
+      <c r="C26" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>26</v>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
       </c>
       <c r="B27" t="s">
         <v>116</v>
       </c>
-      <c r="C27">
-        <v>5000</v>
+      <c r="C27" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>27</v>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
       </c>
       <c r="B28" t="s">
         <v>117</v>
       </c>
-      <c r="C28">
-        <v>5000</v>
+      <c r="C28" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>28</v>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
       </c>
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29">
-        <v>5000</v>
+      <c r="C29" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>29</v>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30">
-        <v>5000</v>
+      <c r="C30" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>30</v>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31">
-        <v>5000</v>
+      <c r="C31" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>31</v>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
       </c>
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32">
-        <v>5000</v>
+      <c r="C32" t="n">
+        <v>5000.0</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1843,181 +1509,180 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="C2">
-        <v>115</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>3200</v>
+      <c r="C2" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3200.0</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
       </c>
-      <c r="C3">
-        <v>145</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4000</v>
+      <c r="C3" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4000.0</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>4300</v>
+      <c r="C4" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4300.0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="C5">
-        <v>230</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>6200</v>
+      <c r="C5" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6200.0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
       </c>
-      <c r="C6">
-        <v>320</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>8200</v>
+      <c r="C6" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8200.0</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
       </c>
-      <c r="C7">
-        <v>620</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>15500</v>
+      <c r="C7" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15500.0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
-      <c r="C8">
-        <v>960</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>22000</v>
+      <c r="C8" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22000.0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="C9">
-        <v>1200</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>26500</v>
+      <c r="C9" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26500.0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2040,18 +1705,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
       </c>
       <c r="E2" t="s">
         <v>138</v>
@@ -2063,18 +1728,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
       </c>
       <c r="E3" t="s">
         <v>139</v>
@@ -2086,18 +1751,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
+      <c r="C4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.0</v>
       </c>
       <c r="E4" t="s">
         <v>140</v>
@@ -2109,18 +1774,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="C5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
@@ -2132,18 +1797,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
       </c>
       <c r="E6" t="s">
         <v>139</v>
@@ -2155,18 +1820,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
+      <c r="C7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.0</v>
       </c>
       <c r="E7" t="s">
         <v>138</v>
@@ -2178,18 +1843,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+      <c r="C8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.0</v>
       </c>
       <c r="E8" t="s">
         <v>138</v>
@@ -2201,18 +1866,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.0</v>
       </c>
       <c r="E9" t="s">
         <v>140</v>
@@ -2224,18 +1889,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
+      <c r="C10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.0</v>
       </c>
       <c r="E10" t="s">
         <v>139</v>
@@ -2247,18 +1912,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
+      <c r="C11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.0</v>
       </c>
       <c r="E11" t="s">
         <v>139</v>
@@ -2270,432 +1935,361 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>70</v>
       </c>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -230,6 +230,15 @@
     <t>Ia6p7cL58SO/2iL9Vl4blA==</t>
   </si>
   <si>
+    <t>gkrwo97</t>
+  </si>
+  <si>
+    <t>난이게제일무서워</t>
+  </si>
+  <si>
+    <t>rTV3OqRP8FcwRxNW+jeFdg==</t>
+  </si>
+  <si>
     <t>seq</t>
   </si>
   <si>
@@ -245,15 +254,6 @@
     <t>readView</t>
   </si>
   <si>
-    <t>배스킨라빈스 401번째 지점 오픈</t>
-  </si>
-  <si>
-    <t>401번째 지점 오픈을 축하합니다 ~~~</t>
-  </si>
-  <si>
-    <t>2020-04-01</t>
-  </si>
-  <si>
     <t>31일의 이벤트</t>
   </si>
   <si>
@@ -287,6 +287,15 @@
     <t>우유 아이스크림과 소보로 아이스크림 속에 소보로 크럼블이 쏙쏙!</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
     <t>kinds</t>
   </si>
   <si>
@@ -386,6 +395,9 @@
     <t>초콜릿 무스</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>gram</t>
   </si>
   <si>
@@ -419,6 +431,9 @@
     <t>하프갤런</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -441,6 +456,9 @@
   </si>
   <si>
     <t>방문포장</t>
+  </si>
+  <si>
+    <t>포장</t>
   </si>
   <si>
     <t>order_seq</t>
@@ -554,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3800.0</v>
+        <v>597.0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -898,6 +916,23 @@
       </c>
       <c r="E22" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="n">
+        <v>198990.0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -915,104 +950,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>10831.0</v>
+        <v>6678.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" t="n">
-        <v>6678.0</v>
+        <v>8376.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
-        <v>8376.0</v>
+        <v>678.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>
       </c>
       <c r="E5" t="n">
-        <v>678.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>372.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1030,13 +1065,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1047,10 +1082,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>5000.0</v>
+        <v>4770.0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1061,7 +1096,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" t="n">
         <v>5000.0</v>
@@ -1075,7 +1110,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" t="n">
         <v>5000.0</v>
@@ -1089,7 +1124,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" t="n">
         <v>4885.0</v>
@@ -1103,7 +1138,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
         <v>4885.0</v>
@@ -1117,7 +1152,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" t="n">
         <v>5000.0</v>
@@ -1131,7 +1166,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
         <v>5000.0</v>
@@ -1145,7 +1180,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
         <v>5000.0</v>
@@ -1159,7 +1194,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>5000.0</v>
@@ -1173,7 +1208,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" t="n">
         <v>5000.0</v>
@@ -1187,7 +1222,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C12" t="n">
         <v>5000.0</v>
@@ -1201,7 +1236,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" t="n">
         <v>5000.0</v>
@@ -1215,7 +1250,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C14" t="n">
         <v>5000.0</v>
@@ -1229,7 +1264,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
         <v>5000.0</v>
@@ -1243,7 +1278,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" t="n">
         <v>5000.0</v>
@@ -1257,7 +1292,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C17" t="n">
         <v>5000.0</v>
@@ -1271,7 +1306,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C18" t="n">
         <v>5000.0</v>
@@ -1285,7 +1320,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" t="n">
         <v>5000.0</v>
@@ -1299,7 +1334,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C20" t="n">
         <v>5000.0</v>
@@ -1313,7 +1348,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C21" t="n">
         <v>5000.0</v>
@@ -1327,7 +1362,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" t="n">
         <v>5000.0</v>
@@ -1341,7 +1376,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C23" t="n">
         <v>5000.0</v>
@@ -1355,7 +1390,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C24" t="n">
         <v>5000.0</v>
@@ -1369,7 +1404,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" t="n">
         <v>5000.0</v>
@@ -1383,7 +1418,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" t="n">
         <v>5000.0</v>
@@ -1397,7 +1432,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" t="n">
         <v>5000.0</v>
@@ -1411,7 +1446,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C28" t="n">
         <v>5000.0</v>
@@ -1425,7 +1460,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C29" t="n">
         <v>5000.0</v>
@@ -1439,7 +1474,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C30" t="n">
         <v>5000.0</v>
@@ -1453,7 +1488,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C31" t="n">
         <v>5000.0</v>
@@ -1467,12 +1502,40 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C32" t="n">
-        <v>5000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1491,19 +1554,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1514,7 +1577,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C2" t="n">
         <v>115.0</v>
@@ -1534,7 +1597,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" t="n">
         <v>145.0</v>
@@ -1554,7 +1617,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C4" t="n">
         <v>150.0</v>
@@ -1574,7 +1637,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C5" t="n">
         <v>230.0</v>
@@ -1594,7 +1657,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" t="n">
         <v>320.0</v>
@@ -1614,7 +1677,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C7" t="n">
         <v>620.0</v>
@@ -1634,7 +1697,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C8" t="n">
         <v>960.0</v>
@@ -1654,18 +1717,38 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C9" t="n">
         <v>1200.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
         <v>26500.0</v>
       </c>
       <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1684,22 +1767,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1719,7 +1802,7 @@
         <v>0.0</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1742,7 +1825,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1765,7 +1848,7 @@
         <v>4.0</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1788,7 +1871,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1811,7 +1894,7 @@
         <v>0.0</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1834,7 +1917,7 @@
         <v>7.0</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1857,7 +1940,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1880,7 +1963,7 @@
         <v>4.0</v>
       </c>
       <c r="E9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1903,7 +1986,7 @@
         <v>4.0</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1926,12 +2009,81 @@
         <v>5.0</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1950,13 +2102,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -2287,6 +2439,50 @@
       </c>
       <c r="C31" t="n">
         <v>5.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/db/Database.xlsx
+++ b/db/Database.xlsx
@@ -290,7 +290,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>하나둘셋 넷 다섯</t>
   </si>
   <si>
     <t>2021-02-02</t>
@@ -1047,7 +1047,7 @@
         <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
